--- a/src-tauri/excel_operators/basic/result_template.xlsx
+++ b/src-tauri/excel_operators/basic/result_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="19860"/>
+    <workbookView windowHeight="19860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>四川省经济和社会发展研究院
 2022年1-9月基本支出情况表</t>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>51010119</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>税金</t>
@@ -197,9 +200,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -239,6 +242,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -247,49 +341,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,7 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,51 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,16 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,43 +395,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +491,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,109 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,17 +641,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +678,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,16 +714,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,166 +738,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,22 +928,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="A1:XFA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1335,7 +1344,10 @@
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14">
+        <f>SUM(B5,C5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A6" s="12" t="s">
@@ -1347,7 +1359,10 @@
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14">
+        <f>SUM(B6,C6)</f>
+        <v>51010103</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A7" s="12" t="s">
@@ -1359,10 +1374,13 @@
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14">
+        <f t="shared" ref="D7:D14" si="0">SUM(B7,C7)</f>
+        <v>51010104</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1371,7 +1389,10 @@
       <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A9" s="12" t="s">
@@ -1383,7 +1404,10 @@
       <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>51010105</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A10" s="12" t="s">
@@ -1395,7 +1419,10 @@
       <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>51010107</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A11" s="12" t="s">
@@ -1407,7 +1434,10 @@
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>51010108</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A12" s="12" t="s">
@@ -1419,19 +1449,25 @@
       <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>5101012001</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="XEQ13" s="4"/>
       <c r="XER13" s="4"/>
       <c r="XES13" s="4"/>
@@ -1448,17 +1484,17 @@
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <f>SUM(B5:B12)</f>
         <v>5356062528</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <f>SUM(C5:C12)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19">
-        <f>SUM(D5:D12)</f>
-        <v>0</v>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>5356062528</v>
       </c>
       <c r="XEQ14" s="4"/>
       <c r="XER14" s="4"/>
@@ -1476,9 +1512,9 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
       <c r="XEQ15" s="4"/>
       <c r="XER15" s="4"/>
       <c r="XES15" s="4"/>
@@ -1495,13 +1531,16 @@
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="18">
+        <f>SUM(B16,C16)</f>
+        <v>0</v>
+      </c>
       <c r="XEQ16" s="4"/>
       <c r="XER16" s="4"/>
       <c r="XES16" s="4"/>
@@ -1518,13 +1557,16 @@
       <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="20">
         <v>51010115</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18">
+        <f t="shared" ref="D17:D24" si="1">SUM(B17,C17)</f>
+        <v>51010115</v>
+      </c>
       <c r="XEQ17" s="4"/>
       <c r="XER17" s="4"/>
       <c r="XES17" s="4"/>
@@ -1541,13 +1583,16 @@
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="20">
         <v>51010116</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="18">
         <v>50010113</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18">
+        <f t="shared" si="1"/>
+        <v>101020229</v>
+      </c>
       <c r="XEQ18" s="4"/>
       <c r="XER18" s="4"/>
       <c r="XES18" s="4"/>
@@ -1564,13 +1609,16 @@
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="20">
         <v>51010121</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="18">
+        <f t="shared" si="1"/>
+        <v>51010121</v>
+      </c>
       <c r="XEQ19" s="4"/>
       <c r="XER19" s="4"/>
       <c r="XES19" s="4"/>
@@ -1584,16 +1632,19 @@
       <c r="XFA19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="XEQ20" s="4"/>
       <c r="XER20" s="4"/>
       <c r="XES20" s="4"/>
@@ -1607,16 +1658,19 @@
       <c r="XFA20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="XEQ21" s="4"/>
       <c r="XER21" s="4"/>
       <c r="XES21" s="4"/>
@@ -1633,13 +1687,16 @@
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="XEQ22" s="4"/>
       <c r="XER22" s="4"/>
       <c r="XES22" s="4"/>
@@ -1653,14 +1710,19 @@
       <c r="XFA22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="XEQ23" s="4"/>
       <c r="XER23" s="4"/>
       <c r="XES23" s="4"/>
@@ -1674,14 +1736,19 @@
       <c r="XFA23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="19"/>
+      <c r="C24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="XEQ24" s="4"/>
       <c r="XER24" s="4"/>
       <c r="XES24" s="4"/>
@@ -1696,17 +1763,17 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16381">
       <c r="A25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="19">
+      <c r="C25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="21">
         <f>SUM(D16:D22)</f>
-        <v>0</v>
+        <v>203040465</v>
       </c>
       <c r="XEQ25" s="4"/>
       <c r="XER25" s="4"/>
@@ -1722,17 +1789,17 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="19">
+      <c r="C26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="21">
         <f>D25+D14</f>
-        <v>0</v>
+        <v>5559102993</v>
       </c>
     </row>
   </sheetData>

--- a/src-tauri/excel_operators/basic/result_template.xlsx
+++ b/src-tauri/excel_operators/basic/result_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19860"/>
+    <workbookView windowHeight="20000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -257,6 +257,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -271,6 +309,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -278,113 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,6 +395,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,13 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,157 +461,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +654,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,30 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,6 +709,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,161 +738,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:XFA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="16">
-        <f>SUM(B5:B12)</f>
+        <f>SUM(B5:B13)</f>
         <v>5356062528</v>
       </c>
       <c r="C14" s="16">
